--- a/PythonCode Meilenstein 6/Trainingsdaten/Traingsdaten_komplett.xlsx
+++ b/PythonCode Meilenstein 6/Trainingsdaten/Traingsdaten_komplett.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\chris\Documents\98_GitHub\MyCo-Gruppe-3.git\MyCo-Gruppe-3\PythonCode Meilenstein 6\Trainingsdaten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A07B0E0-44FB-46D6-A170-4FE75F115E7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8A974C-0163-4A73-B903-8DAF177C1823}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="756">
   <si>
     <t>Anfrage</t>
   </si>
@@ -613,6 +613,1692 @@
   </si>
   <si>
     <t>5485newsML.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nazis </t>
+  </si>
+  <si>
+    <t>5242newsML.xml</t>
+  </si>
+  <si>
+    <t>6380newsML.xml</t>
+  </si>
+  <si>
+    <t>5241newsML.xml</t>
+  </si>
+  <si>
+    <t>9705newsML.xml</t>
+  </si>
+  <si>
+    <t>11936newsML.xml</t>
+  </si>
+  <si>
+    <t>8367newsML.xml</t>
+  </si>
+  <si>
+    <t>11356newsML.xml</t>
+  </si>
+  <si>
+    <t>11802newsML.xml</t>
+  </si>
+  <si>
+    <t>terrorism syria</t>
+  </si>
+  <si>
+    <t>4093newsML.xml</t>
+  </si>
+  <si>
+    <t>6779newsML.xml</t>
+  </si>
+  <si>
+    <t>6363newsML.xml</t>
+  </si>
+  <si>
+    <t>8065newsML.xml</t>
+  </si>
+  <si>
+    <t>7076newsML.xml</t>
+  </si>
+  <si>
+    <t>6320newsML.xml</t>
+  </si>
+  <si>
+    <t>2776newsML.xml</t>
+  </si>
+  <si>
+    <t>1968 Chicago</t>
+  </si>
+  <si>
+    <t>3802newsML.xml</t>
+  </si>
+  <si>
+    <t>3805newsML.xml</t>
+  </si>
+  <si>
+    <t>5202newsML.xml</t>
+  </si>
+  <si>
+    <t>5204newsML.xml</t>
+  </si>
+  <si>
+    <t>7784newsML.xml</t>
+  </si>
+  <si>
+    <t>1969 Chicago</t>
+  </si>
+  <si>
+    <t>11796newsML.xml</t>
+  </si>
+  <si>
+    <t>1970 Chicago</t>
+  </si>
+  <si>
+    <t>11798newsML.xml</t>
+  </si>
+  <si>
+    <t>1971 Chicago</t>
+  </si>
+  <si>
+    <t>11754newsML.xml</t>
+  </si>
+  <si>
+    <t>1972 Chicago</t>
+  </si>
+  <si>
+    <t>11740newsML.xml</t>
+  </si>
+  <si>
+    <t>1973 Chicago</t>
+  </si>
+  <si>
+    <t>11692newsML.xml</t>
+  </si>
+  <si>
+    <t>banking system USA</t>
+  </si>
+  <si>
+    <t>11866newsML.xml</t>
+  </si>
+  <si>
+    <t>10820newsML.xml</t>
+  </si>
+  <si>
+    <t>8927newsML.xml</t>
+  </si>
+  <si>
+    <t>8240newsML.xml</t>
+  </si>
+  <si>
+    <t>4221newsML.xml</t>
+  </si>
+  <si>
+    <t>2967newsML.xml</t>
+  </si>
+  <si>
+    <t>2321newsML.xml</t>
+  </si>
+  <si>
+    <t>2738newsML.xml</t>
+  </si>
+  <si>
+    <t>9402newsML.xml</t>
+  </si>
+  <si>
+    <t>10255newsML.xml</t>
+  </si>
+  <si>
+    <t>11292newsML.xml</t>
+  </si>
+  <si>
+    <t>12141newsML.xml</t>
+  </si>
+  <si>
+    <t>8637newsML.xml</t>
+  </si>
+  <si>
+    <t>6384newsML.xml</t>
+  </si>
+  <si>
+    <t>7044newsML.xml</t>
+  </si>
+  <si>
+    <t>5687newsML.xml</t>
+  </si>
+  <si>
+    <t>11917newsML.xml</t>
+  </si>
+  <si>
+    <t>11360newsML.xml</t>
+  </si>
+  <si>
+    <t>11342newsML.xml</t>
+  </si>
+  <si>
+    <t>11278newsML.xml</t>
+  </si>
+  <si>
+    <t>10396newsML.xml</t>
+  </si>
+  <si>
+    <t>10221newsML.xml</t>
+  </si>
+  <si>
+    <t>10209newsML.xml</t>
+  </si>
+  <si>
+    <t>10217newsML.xml</t>
+  </si>
+  <si>
+    <t>9768newsML.xml</t>
+  </si>
+  <si>
+    <t>10387newsML.xml</t>
+  </si>
+  <si>
+    <t>2387newsML.xml</t>
+  </si>
+  <si>
+    <t>2742newsML.xml</t>
+  </si>
+  <si>
+    <t>2842newsML.xml</t>
+  </si>
+  <si>
+    <t>4787newsML.xml</t>
+  </si>
+  <si>
+    <t>5148newsML.xml</t>
+  </si>
+  <si>
+    <t>5394newsML.xml</t>
+  </si>
+  <si>
+    <t>5588newsML.xml</t>
+  </si>
+  <si>
+    <t>6069newsML.xml</t>
+  </si>
+  <si>
+    <t>6333newsML.xml</t>
+  </si>
+  <si>
+    <t>7267newsML.xml</t>
+  </si>
+  <si>
+    <t>economics asia</t>
+  </si>
+  <si>
+    <t>12381newsML.xml</t>
+  </si>
+  <si>
+    <t>6243newsML.xml</t>
+  </si>
+  <si>
+    <t>3580newsML.xml</t>
+  </si>
+  <si>
+    <t>10115newsML.xml</t>
+  </si>
+  <si>
+    <t>10218newsML.xml</t>
+  </si>
+  <si>
+    <t>11144newsML.xml</t>
+  </si>
+  <si>
+    <t>9389newsML.xml</t>
+  </si>
+  <si>
+    <t>9366newsML.xml</t>
+  </si>
+  <si>
+    <t>7725newsML.xml</t>
+  </si>
+  <si>
+    <t>7597newsML</t>
+  </si>
+  <si>
+    <t>11593newsML.xml</t>
+  </si>
+  <si>
+    <t>11076newsML.xml</t>
+  </si>
+  <si>
+    <t>trade policy USA</t>
+  </si>
+  <si>
+    <t>9597newsML.xml</t>
+  </si>
+  <si>
+    <t>2839newsML.xml</t>
+  </si>
+  <si>
+    <t>2923newsML.xml</t>
+  </si>
+  <si>
+    <t>4576newsML.xml</t>
+  </si>
+  <si>
+    <t>6645newsML.xml</t>
+  </si>
+  <si>
+    <t>7408newsML.xml</t>
+  </si>
+  <si>
+    <t>crime Mexico</t>
+  </si>
+  <si>
+    <t>3391newsML.xml</t>
+  </si>
+  <si>
+    <t>6161newsML.xml</t>
+  </si>
+  <si>
+    <t>3406newsML.xml</t>
+  </si>
+  <si>
+    <t>8174newsML.xml</t>
+  </si>
+  <si>
+    <t>8177newsML.xml</t>
+  </si>
+  <si>
+    <t>soccer Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">politics China </t>
+  </si>
+  <si>
+    <t>11290newsML.xml</t>
+  </si>
+  <si>
+    <t>6214newsML.xml</t>
+  </si>
+  <si>
+    <t>5132newsML.xml</t>
+  </si>
+  <si>
+    <t>5778newsML.xml</t>
+  </si>
+  <si>
+    <t>8332newsML.xml</t>
+  </si>
+  <si>
+    <t>5487newsML.xml</t>
+  </si>
+  <si>
+    <t>4658newsML.xml</t>
+  </si>
+  <si>
+    <t>3256newsML.xml</t>
+  </si>
+  <si>
+    <t>2447newsML.xml</t>
+  </si>
+  <si>
+    <t>12105newsML.xml</t>
+  </si>
+  <si>
+    <t>11631newsML.xml</t>
+  </si>
+  <si>
+    <t>3985newsML.xml</t>
+  </si>
+  <si>
+    <t>10259newsML.xml</t>
+  </si>
+  <si>
+    <t>8631newsML.xml</t>
+  </si>
+  <si>
+    <t>9033newsML.xml</t>
+  </si>
+  <si>
+    <t>5682newsML.xml</t>
+  </si>
+  <si>
+    <t>11885newsML.xml</t>
+  </si>
+  <si>
+    <t>11238newsML.xml</t>
+  </si>
+  <si>
+    <t>11226newsML.xml</t>
+  </si>
+  <si>
+    <t>5666newsML.xml</t>
+  </si>
+  <si>
+    <t>5626newsML.xml</t>
+  </si>
+  <si>
+    <t>2343newsML.xml</t>
+  </si>
+  <si>
+    <t>4299newsML.xml</t>
+  </si>
+  <si>
+    <t>8931newsML.xml</t>
+  </si>
+  <si>
+    <t>8847newsML.xml</t>
+  </si>
+  <si>
+    <t>8668newsML.xml</t>
+  </si>
+  <si>
+    <t>5066newsML.xml</t>
+  </si>
+  <si>
+    <t>4175newsML.xml</t>
+  </si>
+  <si>
+    <t>2543newsML.xml</t>
+  </si>
+  <si>
+    <t>2406newsML.xml</t>
+  </si>
+  <si>
+    <t>2493newsML.xml</t>
+  </si>
+  <si>
+    <t>2494newsML.xml</t>
+  </si>
+  <si>
+    <t>11897newsML.xml</t>
+  </si>
+  <si>
+    <t>11902newsML.xml</t>
+  </si>
+  <si>
+    <t>11881newsML.xml</t>
+  </si>
+  <si>
+    <t>10802newsML.xml</t>
+  </si>
+  <si>
+    <t>10774newsML.xml</t>
+  </si>
+  <si>
+    <t>10725newsML.xml</t>
+  </si>
+  <si>
+    <t>10674newsML.xml</t>
+  </si>
+  <si>
+    <t>2893newsML.xml</t>
+  </si>
+  <si>
+    <t>11694newsML.xml</t>
+  </si>
+  <si>
+    <t>11568newsML.xml</t>
+  </si>
+  <si>
+    <t>10761newsML.xml</t>
+  </si>
+  <si>
+    <t>10400newsML.xml</t>
+  </si>
+  <si>
+    <t>10401newsML.xml</t>
+  </si>
+  <si>
+    <t>10215newsML.xml</t>
+  </si>
+  <si>
+    <t>8785newsML.xml</t>
+  </si>
+  <si>
+    <t>10212newsML.xml</t>
+  </si>
+  <si>
+    <t>presidents USA</t>
+  </si>
+  <si>
+    <t>Princess Diana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> General Motors</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Philip Morris</t>
+  </si>
+  <si>
+    <t>nuclear waste germany</t>
+  </si>
+  <si>
+    <t>56113newsML.xml</t>
+  </si>
+  <si>
+    <t>117545newsML.xml</t>
+  </si>
+  <si>
+    <t>160222newsML.xml</t>
+  </si>
+  <si>
+    <t>160897newsML.xml</t>
+  </si>
+  <si>
+    <t>227393newsML.xml</t>
+  </si>
+  <si>
+    <t>404700newsML.xml</t>
+  </si>
+  <si>
+    <t>404839newsML..xml</t>
+  </si>
+  <si>
+    <t>409413newsML.xml</t>
+  </si>
+  <si>
+    <t>418187newsML.xml</t>
+  </si>
+  <si>
+    <t>424790newsML.xml</t>
+  </si>
+  <si>
+    <t>6766newsML</t>
+  </si>
+  <si>
+    <t>810542newsML</t>
+  </si>
+  <si>
+    <t>363516newsML</t>
+  </si>
+  <si>
+    <t>800021newsML</t>
+  </si>
+  <si>
+    <t>785333newsML</t>
+  </si>
+  <si>
+    <t>686527newsML</t>
+  </si>
+  <si>
+    <t>441607newsML</t>
+  </si>
+  <si>
+    <t>439750newsML</t>
+  </si>
+  <si>
+    <t>436786newsML</t>
+  </si>
+  <si>
+    <t>berlin wall 1989</t>
+  </si>
+  <si>
+    <t>39925newsML.xml</t>
+  </si>
+  <si>
+    <t>72469newsML.xml</t>
+  </si>
+  <si>
+    <t>117519newsML.xml</t>
+  </si>
+  <si>
+    <t>171602newsML.xml</t>
+  </si>
+  <si>
+    <t>173266newsML.xml</t>
+  </si>
+  <si>
+    <t>178148newsML.xml</t>
+  </si>
+  <si>
+    <t>777102newsML.xml</t>
+  </si>
+  <si>
+    <t>800818newsML</t>
+  </si>
+  <si>
+    <t>794798newsML</t>
+  </si>
+  <si>
+    <t>794803newsML</t>
+  </si>
+  <si>
+    <t>759972newsML</t>
+  </si>
+  <si>
+    <t>758033newsML</t>
+  </si>
+  <si>
+    <t>810668newsML</t>
+  </si>
+  <si>
+    <t>806937newsML</t>
+  </si>
+  <si>
+    <t>800693newsML</t>
+  </si>
+  <si>
+    <t>798250newsML</t>
+  </si>
+  <si>
+    <t>797127newsML</t>
+  </si>
+  <si>
+    <t>michael jackson</t>
+  </si>
+  <si>
+    <t>597759newsML</t>
+  </si>
+  <si>
+    <t>574828newsML</t>
+  </si>
+  <si>
+    <t>558764newsML</t>
+  </si>
+  <si>
+    <t>488387newsML</t>
+  </si>
+  <si>
+    <t>466960newsML</t>
+  </si>
+  <si>
+    <t>452302newsML</t>
+  </si>
+  <si>
+    <t>451945newsML</t>
+  </si>
+  <si>
+    <t>450051newsML</t>
+  </si>
+  <si>
+    <t>382753newsML</t>
+  </si>
+  <si>
+    <t>377525newsML</t>
+  </si>
+  <si>
+    <t>804371newsML</t>
+  </si>
+  <si>
+    <t>802561newsML</t>
+  </si>
+  <si>
+    <t>800948newsML</t>
+  </si>
+  <si>
+    <t>800461newsML</t>
+  </si>
+  <si>
+    <t>797790newsML</t>
+  </si>
+  <si>
+    <t>795859newsML</t>
+  </si>
+  <si>
+    <t>792115newsML</t>
+  </si>
+  <si>
+    <t>790678newsML</t>
+  </si>
+  <si>
+    <t>790311newsML</t>
+  </si>
+  <si>
+    <t>787952newsML</t>
+  </si>
+  <si>
+    <t>helmut kohl</t>
+  </si>
+  <si>
+    <t>810876newsML</t>
+  </si>
+  <si>
+    <t>806989newsML</t>
+  </si>
+  <si>
+    <t>800626newsML</t>
+  </si>
+  <si>
+    <t>797672newsML</t>
+  </si>
+  <si>
+    <t>794466newsML</t>
+  </si>
+  <si>
+    <t>794390newsML</t>
+  </si>
+  <si>
+    <t>792580newsML</t>
+  </si>
+  <si>
+    <t>791952newsML</t>
+  </si>
+  <si>
+    <t>763307newsML</t>
+  </si>
+  <si>
+    <t>749793newsML</t>
+  </si>
+  <si>
+    <t>705319newsML</t>
+  </si>
+  <si>
+    <t>703410newsML</t>
+  </si>
+  <si>
+    <t>703909newsML</t>
+  </si>
+  <si>
+    <t>697306newsML</t>
+  </si>
+  <si>
+    <t>687347newsML</t>
+  </si>
+  <si>
+    <t>654560newsML</t>
+  </si>
+  <si>
+    <t>641368newsML</t>
+  </si>
+  <si>
+    <t>515522newsML</t>
+  </si>
+  <si>
+    <t>272105newsML</t>
+  </si>
+  <si>
+    <t>271435newsML</t>
+  </si>
+  <si>
+    <t>u.s president Bill Clinton</t>
+  </si>
+  <si>
+    <t>794333newsML</t>
+  </si>
+  <si>
+    <t>791419newsML</t>
+  </si>
+  <si>
+    <t>764133newsML</t>
+  </si>
+  <si>
+    <t>762898newsML</t>
+  </si>
+  <si>
+    <t>760975newsML</t>
+  </si>
+  <si>
+    <t>750537newsML</t>
+  </si>
+  <si>
+    <t>749516newsML</t>
+  </si>
+  <si>
+    <t>747102newsML</t>
+  </si>
+  <si>
+    <t>746533newsML</t>
+  </si>
+  <si>
+    <t>170732newsML</t>
+  </si>
+  <si>
+    <t>799627newsML</t>
+  </si>
+  <si>
+    <t>764906newsML</t>
+  </si>
+  <si>
+    <t>757768newsML</t>
+  </si>
+  <si>
+    <t>701107newsML</t>
+  </si>
+  <si>
+    <t>695743newsML</t>
+  </si>
+  <si>
+    <t>599428newsML</t>
+  </si>
+  <si>
+    <t>593136newsML</t>
+  </si>
+  <si>
+    <t>809740newsML</t>
+  </si>
+  <si>
+    <t>807582newsML</t>
+  </si>
+  <si>
+    <t>806876newsML</t>
+  </si>
+  <si>
+    <t>taleban</t>
+  </si>
+  <si>
+    <t>645858newsML</t>
+  </si>
+  <si>
+    <t>140889newsML</t>
+  </si>
+  <si>
+    <t>87000newsML</t>
+  </si>
+  <si>
+    <t>4856newsML</t>
+  </si>
+  <si>
+    <t>83392newsML</t>
+  </si>
+  <si>
+    <t>553943newsML</t>
+  </si>
+  <si>
+    <t>472678newsML</t>
+  </si>
+  <si>
+    <t>447627newsML</t>
+  </si>
+  <si>
+    <t>447604newsML</t>
+  </si>
+  <si>
+    <t>430762newsML</t>
+  </si>
+  <si>
+    <t>574840newsML</t>
+  </si>
+  <si>
+    <t>500397newsML</t>
+  </si>
+  <si>
+    <t>489479newsML</t>
+  </si>
+  <si>
+    <t>489457newsML</t>
+  </si>
+  <si>
+    <t>487323newsML</t>
+  </si>
+  <si>
+    <t>487324newsML</t>
+  </si>
+  <si>
+    <t>810861newsML</t>
+  </si>
+  <si>
+    <t>97968newsML</t>
+  </si>
+  <si>
+    <t>807149newsML</t>
+  </si>
+  <si>
+    <t>798801newsML</t>
+  </si>
+  <si>
+    <t>second world war</t>
+  </si>
+  <si>
+    <t>711502newsML</t>
+  </si>
+  <si>
+    <t>639522newsML</t>
+  </si>
+  <si>
+    <t>256085newsML</t>
+  </si>
+  <si>
+    <t>480877newsML</t>
+  </si>
+  <si>
+    <t>16419newsML</t>
+  </si>
+  <si>
+    <t>595608newsML</t>
+  </si>
+  <si>
+    <t>147216newsML</t>
+  </si>
+  <si>
+    <t>786911newsML</t>
+  </si>
+  <si>
+    <t>532387newsML</t>
+  </si>
+  <si>
+    <t>341094newsML</t>
+  </si>
+  <si>
+    <t>350025newsML</t>
+  </si>
+  <si>
+    <t>341036newsML</t>
+  </si>
+  <si>
+    <t>301897newsML</t>
+  </si>
+  <si>
+    <t>191926newsML</t>
+  </si>
+  <si>
+    <t>810666newsML</t>
+  </si>
+  <si>
+    <t>799526newsML</t>
+  </si>
+  <si>
+    <t>783740newsML</t>
+  </si>
+  <si>
+    <t>wall street</t>
+  </si>
+  <si>
+    <t>810091newsML</t>
+  </si>
+  <si>
+    <t>810077newsML</t>
+  </si>
+  <si>
+    <t>807929newsML</t>
+  </si>
+  <si>
+    <t>807260newsML</t>
+  </si>
+  <si>
+    <t>460073newsML</t>
+  </si>
+  <si>
+    <t>459112newsML</t>
+  </si>
+  <si>
+    <t>459050newsML</t>
+  </si>
+  <si>
+    <t>457026newsML</t>
+  </si>
+  <si>
+    <t>456969newsML</t>
+  </si>
+  <si>
+    <t>449085newsML</t>
+  </si>
+  <si>
+    <t>12508newsML</t>
+  </si>
+  <si>
+    <t>12509newsML</t>
+  </si>
+  <si>
+    <t>11863newsML</t>
+  </si>
+  <si>
+    <t>12525newsML</t>
+  </si>
+  <si>
+    <t>11208newsML</t>
+  </si>
+  <si>
+    <t>9192newsML</t>
+  </si>
+  <si>
+    <t>8938newsML</t>
+  </si>
+  <si>
+    <t>12522newsML</t>
+  </si>
+  <si>
+    <t>12372newsML</t>
+  </si>
+  <si>
+    <t>bayern munich</t>
+  </si>
+  <si>
+    <t>346189newsML</t>
+  </si>
+  <si>
+    <t>277466newsML</t>
+  </si>
+  <si>
+    <t>263396newsML</t>
+  </si>
+  <si>
+    <t>254270newsML</t>
+  </si>
+  <si>
+    <t>241622newsML</t>
+  </si>
+  <si>
+    <t>222200newsML</t>
+  </si>
+  <si>
+    <t>177518newsML</t>
+  </si>
+  <si>
+    <t>558281newsML</t>
+  </si>
+  <si>
+    <t>227812newsML</t>
+  </si>
+  <si>
+    <t>248519newsML</t>
+  </si>
+  <si>
+    <t>5388newsML</t>
+  </si>
+  <si>
+    <t>4382newsML</t>
+  </si>
+  <si>
+    <t>5390newsML</t>
+  </si>
+  <si>
+    <t>10823newsML</t>
+  </si>
+  <si>
+    <t>10096newsML</t>
+  </si>
+  <si>
+    <t>11786newsML</t>
+  </si>
+  <si>
+    <t>10726newsML</t>
+  </si>
+  <si>
+    <t>10573newsML</t>
+  </si>
+  <si>
+    <t>10578newsML</t>
+  </si>
+  <si>
+    <t>10581newsML</t>
+  </si>
+  <si>
+    <t>Audi</t>
+  </si>
+  <si>
+    <t>788966newsML</t>
+  </si>
+  <si>
+    <t>304605newsML</t>
+  </si>
+  <si>
+    <t>703355newsML</t>
+  </si>
+  <si>
+    <t>234539newsML</t>
+  </si>
+  <si>
+    <t>232460newsML</t>
+  </si>
+  <si>
+    <t>89163newsML</t>
+  </si>
+  <si>
+    <t>22933newsML</t>
+  </si>
+  <si>
+    <t>22935newsML</t>
+  </si>
+  <si>
+    <t>22886newsML</t>
+  </si>
+  <si>
+    <t>22887newsML</t>
+  </si>
+  <si>
+    <t>9634newsML</t>
+  </si>
+  <si>
+    <t>7318newsML</t>
+  </si>
+  <si>
+    <t>12445newsML</t>
+  </si>
+  <si>
+    <t>11951newsML</t>
+  </si>
+  <si>
+    <t>11708newsML</t>
+  </si>
+  <si>
+    <t>8583newsML</t>
+  </si>
+  <si>
+    <t>12369newsML</t>
+  </si>
+  <si>
+    <t>10873newsML</t>
+  </si>
+  <si>
+    <t>6569newsML</t>
+  </si>
+  <si>
+    <t>american football</t>
+  </si>
+  <si>
+    <t>3780newsML.xml</t>
+  </si>
+  <si>
+    <t>3714newsML.xml</t>
+  </si>
+  <si>
+    <t>4282newsML.xml</t>
+  </si>
+  <si>
+    <t>11402newsML.xml</t>
+  </si>
+  <si>
+    <t>4744newsML.xml</t>
+  </si>
+  <si>
+    <t>2325newsML.xml</t>
+  </si>
+  <si>
+    <t>2648newsML.xml</t>
+  </si>
+  <si>
+    <t>2669newsML.xml</t>
+  </si>
+  <si>
+    <t>3094newsML.xml</t>
+  </si>
+  <si>
+    <t>2671newsML.xml</t>
+  </si>
+  <si>
+    <t>3545newsML.xml</t>
+  </si>
+  <si>
+    <t>2668newsML.xml</t>
+  </si>
+  <si>
+    <t>5366newsML.xml</t>
+  </si>
+  <si>
+    <t>5353newsML.xml</t>
+  </si>
+  <si>
+    <t>5421newsML.xml</t>
+  </si>
+  <si>
+    <t>5384newsML.xml</t>
+  </si>
+  <si>
+    <t>5389newsML.xml</t>
+  </si>
+  <si>
+    <t>10561newsML.xml</t>
+  </si>
+  <si>
+    <t>countries in the world</t>
+  </si>
+  <si>
+    <t>8345newsML.xml</t>
+  </si>
+  <si>
+    <t>7714newsML.xml</t>
+  </si>
+  <si>
+    <t>7700newsML.xml</t>
+  </si>
+  <si>
+    <t>9790newsML.xml</t>
+  </si>
+  <si>
+    <t>9058newsML.xml</t>
+  </si>
+  <si>
+    <t>11445newsML.xml</t>
+  </si>
+  <si>
+    <t>10358newsML.xml</t>
+  </si>
+  <si>
+    <t>5000newsML.xml</t>
+  </si>
+  <si>
+    <t>5169newsML.xml</t>
+  </si>
+  <si>
+    <t>4991newsML.xml</t>
+  </si>
+  <si>
+    <t>2356newsML.xml</t>
+  </si>
+  <si>
+    <t>4386newsML.xml</t>
+  </si>
+  <si>
+    <t>3515newsML.xml</t>
+  </si>
+  <si>
+    <t>2507newsML.xml</t>
+  </si>
+  <si>
+    <t>2677newsML.xml</t>
+  </si>
+  <si>
+    <t>2312newsML.xml</t>
+  </si>
+  <si>
+    <t>2474newsML.xml</t>
+  </si>
+  <si>
+    <t>4913newsML.xml</t>
+  </si>
+  <si>
+    <t>4013newsML.xml</t>
+  </si>
+  <si>
+    <t>crimes in the US</t>
+  </si>
+  <si>
+    <t>4161newsML.xml</t>
+  </si>
+  <si>
+    <t>3838newsML.xml</t>
+  </si>
+  <si>
+    <t>3433newsML.xml</t>
+  </si>
+  <si>
+    <t>3549newsML.xml</t>
+  </si>
+  <si>
+    <t>4620newsML.xml</t>
+  </si>
+  <si>
+    <t>3320newsML.xml</t>
+  </si>
+  <si>
+    <t>3204newsML.xml</t>
+  </si>
+  <si>
+    <t>3225newsML.xml</t>
+  </si>
+  <si>
+    <t>7128newsML.xml</t>
+  </si>
+  <si>
+    <t>5870newsML.xml</t>
+  </si>
+  <si>
+    <t>5848newsML.xml</t>
+  </si>
+  <si>
+    <t>5847newsML.xml</t>
+  </si>
+  <si>
+    <t>12534newsML.xml</t>
+  </si>
+  <si>
+    <t>politics in the EU</t>
+  </si>
+  <si>
+    <t>2739newsML.xml</t>
+  </si>
+  <si>
+    <t>2606newsML.xml</t>
+  </si>
+  <si>
+    <t>4399newsML.xml</t>
+  </si>
+  <si>
+    <t>4316newsML.xml</t>
+  </si>
+  <si>
+    <t>4361newsML.xml</t>
+  </si>
+  <si>
+    <t>4437newsML.xml</t>
+  </si>
+  <si>
+    <t>7073newsML.xml</t>
+  </si>
+  <si>
+    <t>3904newsML.xml</t>
+  </si>
+  <si>
+    <t>4743newsML.xml</t>
+  </si>
+  <si>
+    <t>3724newsML.xml</t>
+  </si>
+  <si>
+    <t>3632newsML.xml</t>
+  </si>
+  <si>
+    <t>2458newsML.xml</t>
+  </si>
+  <si>
+    <t>3430newsML.xml</t>
+  </si>
+  <si>
+    <t>5858newsML.xml</t>
+  </si>
+  <si>
+    <t>economy in Asia</t>
+  </si>
+  <si>
+    <t>10348newsML.xml</t>
+  </si>
+  <si>
+    <t>9420newsML.xml</t>
+  </si>
+  <si>
+    <t>7695newsML.xml</t>
+  </si>
+  <si>
+    <t>2949newsML.xml</t>
+  </si>
+  <si>
+    <t>3381newsML.xml</t>
+  </si>
+  <si>
+    <t>3274newsML.xml</t>
+  </si>
+  <si>
+    <t>3963newsML.xml</t>
+  </si>
+  <si>
+    <t>3222newsML.xml</t>
+  </si>
+  <si>
+    <t>4364newsML.xml</t>
+  </si>
+  <si>
+    <t>2577newsML.xml</t>
+  </si>
+  <si>
+    <t>2425newsML.xml</t>
+  </si>
+  <si>
+    <t>2512newsML.xml</t>
+  </si>
+  <si>
+    <t>2580newsML.xml</t>
+  </si>
+  <si>
+    <t>3253newsML.xml</t>
+  </si>
+  <si>
+    <t>4137newsML.xml</t>
+  </si>
+  <si>
+    <t>4027newsML.xml</t>
+  </si>
+  <si>
+    <t>animals in Australia</t>
+  </si>
+  <si>
+    <t>7212newsML.xml</t>
+  </si>
+  <si>
+    <t>8466newsML.xml</t>
+  </si>
+  <si>
+    <t>9731newsML.xml</t>
+  </si>
+  <si>
+    <t>9491newsML.xml</t>
+  </si>
+  <si>
+    <t>9246newsML.xml</t>
+  </si>
+  <si>
+    <t>9761newsML.xml</t>
+  </si>
+  <si>
+    <t>10228newsML.xml</t>
+  </si>
+  <si>
+    <t>weather in Canada</t>
+  </si>
+  <si>
+    <t>3101newsML.xml</t>
+  </si>
+  <si>
+    <t>10931newsML.xml</t>
+  </si>
+  <si>
+    <t>9035newsML.xml</t>
+  </si>
+  <si>
+    <t>3688newsML.xml</t>
+  </si>
+  <si>
+    <t>2584newsML.xml</t>
+  </si>
+  <si>
+    <t>2590newsML.xml</t>
+  </si>
+  <si>
+    <t>3317newsML.xml</t>
+  </si>
+  <si>
+    <t>3358newsML.xml</t>
+  </si>
+  <si>
+    <t>4355newsML.xml</t>
+  </si>
+  <si>
+    <t>2573newsML.xml</t>
+  </si>
+  <si>
+    <t>3396newsML.xml</t>
+  </si>
+  <si>
+    <t>4583newsML.xml</t>
+  </si>
+  <si>
+    <t>3898newsML.xml</t>
+  </si>
+  <si>
+    <t>3143newsML.xml</t>
+  </si>
+  <si>
+    <t>3820newsML.xml</t>
+  </si>
+  <si>
+    <t>3313newsML.xml</t>
+  </si>
+  <si>
+    <t>4104newsML.xml</t>
+  </si>
+  <si>
+    <t>3416newsML.xml</t>
+  </si>
+  <si>
+    <t>Helmut Kohl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">former neo-Nazis </t>
+  </si>
+  <si>
+    <t>8467newsML.xml</t>
+  </si>
+  <si>
+    <t>8334newsML.xml</t>
+  </si>
+  <si>
+    <t>7145newsML.xml</t>
+  </si>
+  <si>
+    <t>11128newsML.xml</t>
+  </si>
+  <si>
+    <t>8392newsML.xml</t>
+  </si>
+  <si>
+    <t>2617newsML.xml</t>
+  </si>
+  <si>
+    <t>4374newsML.xml</t>
+  </si>
+  <si>
+    <t>4863newsML.xml</t>
+  </si>
+  <si>
+    <t>4889newsML.xml</t>
+  </si>
+  <si>
+    <t>4893newsML.xml</t>
+  </si>
+  <si>
+    <t>4894newsML.xml</t>
+  </si>
+  <si>
+    <t>4909newsML.xml</t>
+  </si>
+  <si>
+    <t>5279newsML.xml</t>
+  </si>
+  <si>
+    <t>5477newsML.xml</t>
+  </si>
+  <si>
+    <t>7070newsML.xml</t>
+  </si>
+  <si>
+    <t>7827newsML.xml</t>
+  </si>
+  <si>
+    <t>8364newsML.xml</t>
+  </si>
+  <si>
+    <t>2759newsML.xml</t>
+  </si>
+  <si>
+    <t>3637newsML.xml</t>
+  </si>
+  <si>
+    <t>4085newsML.xml</t>
+  </si>
+  <si>
+    <t>4159newsML.xml</t>
+  </si>
+  <si>
+    <t>5571newsML.xml</t>
+  </si>
+  <si>
+    <t>6084newsML.xml</t>
+  </si>
+  <si>
+    <t>6486newsML.xml</t>
+  </si>
+  <si>
+    <t>6862newsML.xml</t>
+  </si>
+  <si>
+    <t>11145newsML.xml</t>
+  </si>
+  <si>
+    <t>11146newsML.xml</t>
+  </si>
+  <si>
+    <t>11150newsML.xml</t>
+  </si>
+  <si>
+    <t>11422newsML.xml</t>
+  </si>
+  <si>
+    <t>9217newsML.xml</t>
+  </si>
+  <si>
+    <t>9168newsML.xml</t>
+  </si>
+  <si>
+    <t>9163newsML.xml</t>
+  </si>
+  <si>
+    <t>9118newsML.xml</t>
+  </si>
+  <si>
+    <t>9110newsML.xml</t>
+  </si>
+  <si>
+    <t>7657newsML.xml</t>
+  </si>
+  <si>
+    <t>7653newsML.xml</t>
+  </si>
+  <si>
+    <t>7587newsML.xml</t>
+  </si>
+  <si>
+    <t>7560newsML.xml</t>
+  </si>
+  <si>
+    <t>6330newsML.xml</t>
+  </si>
+  <si>
+    <t>6044newsML.xml</t>
+  </si>
+  <si>
+    <t>6002newsML.xml</t>
+  </si>
+  <si>
+    <t>5056newsML.xml</t>
+  </si>
+  <si>
+    <t>11336newsML.xml</t>
+  </si>
+  <si>
+    <t>11339newsML.xml</t>
+  </si>
+  <si>
+    <t>11345newsML.xml</t>
+  </si>
+  <si>
+    <t>11424newsML.xml</t>
+  </si>
+  <si>
+    <t>11667newsML.xml</t>
+  </si>
+  <si>
+    <t>11679newsML.xml</t>
+  </si>
+  <si>
+    <t>12464newsML.xml</t>
+  </si>
+  <si>
+    <t>6302newsML.xml</t>
+  </si>
+  <si>
+    <t>6373newsML.xml</t>
+  </si>
+  <si>
+    <t>6768newsML.xml</t>
+  </si>
+  <si>
+    <t>5290newsML.xml</t>
+  </si>
+  <si>
+    <t>5325newsML.xml</t>
+  </si>
+  <si>
+    <t>6151newsML.xml</t>
+  </si>
+  <si>
+    <t>7098newsML.xml</t>
+  </si>
+  <si>
+    <t>7160newsML.xml</t>
+  </si>
+  <si>
+    <t>12134newsML.xml</t>
+  </si>
+  <si>
+    <t>12172newsML.xml</t>
+  </si>
+  <si>
+    <t>2415newsML.xml</t>
+  </si>
+  <si>
+    <t>3516newsML.xml</t>
+  </si>
+  <si>
+    <t>4531newsML.xml</t>
+  </si>
+  <si>
+    <t>4535newsML.xml</t>
+  </si>
+  <si>
+    <t>7255newsML.xml</t>
+  </si>
+  <si>
+    <t>7668newsML.xml</t>
+  </si>
+  <si>
+    <t>9323newsML.xml</t>
+  </si>
+  <si>
+    <t>9338newsML.xml</t>
+  </si>
+  <si>
+    <t>9983newsML.xml</t>
+  </si>
+  <si>
+    <t>Brazil exports</t>
+  </si>
+  <si>
+    <t>3407newsML.xml</t>
+  </si>
+  <si>
+    <t>3375newsML.xml</t>
+  </si>
+  <si>
+    <t>11203newsML.xml</t>
+  </si>
+  <si>
+    <t>9289newsML.xml</t>
+  </si>
+  <si>
+    <t>European Competition Commissioner Karel Van Miert</t>
+  </si>
+  <si>
+    <t>oil price</t>
+  </si>
+  <si>
+    <t>10712newsML.xml</t>
+  </si>
+  <si>
+    <t>10734newsML.xml</t>
+  </si>
+  <si>
+    <t>10754newsML.xml</t>
+  </si>
+  <si>
+    <t>11197newsML.xml</t>
+  </si>
+  <si>
+    <t>2307newsML.xml</t>
+  </si>
+  <si>
+    <t>2698newsML.xml</t>
+  </si>
+  <si>
+    <t>2880newsML.xml</t>
+  </si>
+  <si>
+    <t>3404newsML.xml</t>
+  </si>
+  <si>
+    <t>4969newsML.xml</t>
+  </si>
+  <si>
+    <t>Bill Clinton</t>
+  </si>
+  <si>
+    <t>9691newsML.xml</t>
+  </si>
+  <si>
+    <t>9626newsML.xml</t>
+  </si>
+  <si>
+    <t>7788newsML.xml</t>
+  </si>
+  <si>
+    <t>6449newsML.xml</t>
+  </si>
+  <si>
+    <t>6433newsML.xml</t>
+  </si>
+  <si>
+    <t>2505newsML.xml</t>
+  </si>
+  <si>
+    <t>economic  sweden</t>
+  </si>
+  <si>
+    <t>hurricanes Dolly golf  Mexico</t>
+  </si>
+  <si>
+    <t>Russian president</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Deutsche Telekom</t>
+  </si>
+  <si>
+    <t>Australia</t>
   </si>
 </sst>
 </file>
@@ -636,7 +2322,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -644,11 +2330,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -964,13 +2695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C190"/>
+  <dimension ref="A1:C783"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3060,6 +4791,6529 @@
       </c>
       <c r="C190">
         <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C191" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C192" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C193" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C194" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C195" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C196" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C197" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C198" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C199" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C200" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C201" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C202" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C203" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C206" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C207" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C208" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C209" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C210" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C211" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C213" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C214" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C215" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C216" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C217" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C218" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C219" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C220" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C221" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C222" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C223" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C226" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C227" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C228" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C229" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C231" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C232" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C233" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C234" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C235" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C236" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C237" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C238" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C239" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C240" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C241" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C242" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C243" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C244" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C245" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C246" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C247" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C248" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C249" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C250" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C251" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C252" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C253" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C254" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C255" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C256" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C257" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C258" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C259" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C260" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C261" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C262" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C263" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C264" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C265" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C266" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C267" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C268" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C269" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C270" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C271" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C272" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C273" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C274" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C275" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C276" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C277" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C278" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C279" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C280" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C281" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C282" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C283" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C284" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C285" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C286" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C287" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C288" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C289" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C290" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C291" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C292" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C293" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C294" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C295" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C296" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C297" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C298" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C299" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C300" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C301" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C302" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C303" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C304" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C305" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C306" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C307" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C308" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C309" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C310" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C311" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C312" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C313" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C314" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C315" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C316" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C317" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C318" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C319" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C320" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C321" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C322" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C323" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C324" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C325" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C326" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C327" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C328" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C329" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C330" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C331" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C332" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C333" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C334" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C335" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C336" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C337" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C338" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C339" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C340" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C341" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C342" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C343" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C344" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C345" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C346" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C347" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C348" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C349" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C350" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C351" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C352" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C353" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C354" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C355" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C356" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C357" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C358" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C359" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C360" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C361" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C362" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C363" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C364" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C365" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C366" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C367" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C368" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C369" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C370" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C371" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C372" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C373" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C374" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C375" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C376" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C377" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C378" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C379" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C380" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C381" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C382" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C383" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C384" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C385" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C386" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C387" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C388" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C389" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C390" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C391" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C392" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C393" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C394" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C395" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C396" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C397" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C398" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C399" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C400" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C401" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C402" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C403" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C404" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C405" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C406" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C407" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C408" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C409" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C410" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C411" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C412" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C413" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C414" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C415" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C416" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C417" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C418" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C419" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C420" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C421" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C422" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C423" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C424" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C425" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C426" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C427" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C428" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C429" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C430" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C431" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C432" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C433" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C434" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C435" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C436" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C437" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C438" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C439" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C440" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C441" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C442" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C443" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C444" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C445" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C446" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C447" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C448" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C449" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C450" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C451" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C452" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C453" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C454" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C455" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C456" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C457" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C458" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C459" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C460" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C461" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C462" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C463" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C464" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C465" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C466" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C467" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C468" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C469" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C470" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C471" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C472" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C473" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C474" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C475" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C476" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C477" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C478" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C479" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C480" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C481" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C482" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C483" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C484" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C485" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C486" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C487" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C488" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C489" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C490" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C491" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C492" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C493" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C494" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C495" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C496" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C497" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C498" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C499" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C500" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C501" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C502" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C503" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C504" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C505" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C506" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C507" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C508" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C509" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C510" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C511" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C512" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C513" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C514" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C515" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C516" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C517" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C518" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C519" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C520" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C521" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C522" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C523" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C524" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C525" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C526" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C527" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C528" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C529" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C530" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C531" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C532" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C533" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C534" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C535" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C536" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C537" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C538" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C539" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C540" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B541" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="C541" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B542" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="C542" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B543" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="C543" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B544" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="C544" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B545" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C545" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B546" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="C546" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B547" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C547" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B548" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="C548" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B549" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="C549" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B550" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C550" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B551" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C551" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B552" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C552" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B553" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C553" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B554" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="C554" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B555" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="C555" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B556" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C556" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B557" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C557" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B558" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="C558" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B559" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C559" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B560" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="C560" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B561" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="C561" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B562" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="C562" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B563" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C563" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B564" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="C564" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B565" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="C565" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B566" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="C566" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B567" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="C567" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B568" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C568" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B569" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="C569" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B570" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="C570" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B571" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="C571" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B572" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="C572" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B573" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="C573" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B574" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="C574" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B575" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="C575" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B576" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="C576" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B577" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C577" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B578" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="C578" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B579" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="C579" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B580" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="C580" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B581" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="C581" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B582" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C582" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B583" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="C583" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B584" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="C584" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B585" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="C585" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B586" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C586" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B587" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C587" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B588" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="C588" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B589" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C589" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B590" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C590" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B591" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C591" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B592" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C592" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B593" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="C593" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B594" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="C594" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B595" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="C595" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B596" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="C596" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B597" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C597" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B598" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="C598" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B599" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="C599" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B600" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="C600" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B601" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="C601" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B602" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="C602" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B603" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="C603" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B604" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="C604" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B605" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="C605" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B606" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C606" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B607" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C607" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B608" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="C608" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B609" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="C609" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B610" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="C610" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B611" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C611" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B612" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="C612" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B613" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C613" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B614" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="C614" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B615" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="C615" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B616" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C616" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B617" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C617" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B618" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="C618" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B619" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="C619" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B620" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C620" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B621" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="C621" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B622" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C622" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B623" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C623" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B624" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C624" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B625" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C625" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B626" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C626" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B627" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="C627" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B628" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C628" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B629" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="C629" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B630" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="C630" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B631" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="C631" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B632" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="C632" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B633" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="C633" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B634" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C634" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B635" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="C635" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B636" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="C636" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B637" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C637" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B638" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="C638" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B639" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="C639" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B640" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C640" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B641" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C641" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B642" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="C642" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B643" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="C643" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B644" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="C644" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B645" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="C645" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B646" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="C646" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="B647" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="C647" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="B648" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="C648" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="B649" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="C649" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="B650" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="C650" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="B651" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="C651" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="B652" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C652" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="B653" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="C653" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="B654" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="C654" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="B655" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="C655" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B656" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="C656" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B657" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="C657" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B658" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="C658" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B659" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="C659" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B660" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="C660" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B661" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="C661" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B662" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="C662" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B663" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="C663" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B664" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="C664" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B665" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="C665" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B666" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="C666" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B667" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="C667" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B668" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C668" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B669" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="C669" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B670" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="C670" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B671" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="C671" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B672" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="C672" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B673" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="C673" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="B674" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C674" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="B675" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C675" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="B676" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C676" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="B677" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C677" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="B678" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C678" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="B679" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="C679" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="B680" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C680" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="B681" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="C681" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="B682" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C682" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="B683" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C683" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A684" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="B684" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="C684" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A685" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="B685" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C685" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A686" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="B686" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C686" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A687" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="B687" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="C687" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A688" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="B688" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="C688" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A689" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="B689" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="C689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A690" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="B690" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="C690" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A691" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="B691" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="C691" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A692" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="B692" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="C692" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A693" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="B693" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C693" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A694" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="B694" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="C694" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A695" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="B695" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="C695" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A696" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="B696" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="C696" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="B697" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="C697" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="B698" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="C698" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="B699" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="C699" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A700" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="B700" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="C700" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A701" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="B701" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="C701" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A702" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="B702" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="C702" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A703" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="B703" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="C703" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A704" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="B704" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="C704" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A705" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="B705" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="C705" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A706" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="B706" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="C706" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A707" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="B707" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="C707" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A708" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="B708" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="C708" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A709" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="B709" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="C709" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A710" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="B710" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="C710" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A711" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="B711" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="C711" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A712" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="B712" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="C712" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A713" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="B713" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="C713" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A714" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="B714" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="C714" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A715" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="B715" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="C715" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A716" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="B716" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="C716" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A717" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="B717" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="C717" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A718" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="B718" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="C718" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A719" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="B719" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="C719" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A720" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="B720" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="C720" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A721" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="B721" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="C721" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A722" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="B722" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="C722" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A723" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="B723" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="C723" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A724" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="B724" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="C724" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A725" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="B725" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C725" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A726" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="B726" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="C726" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A727" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="B727" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="C727" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A728" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="B728" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="C728" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A729" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="B729" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="C729" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A730" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="B730" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="C730" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A731" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="B731" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="C731" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A732" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="B732" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="C732" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A733" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="B733" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="C733" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A734" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="B734" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="C734" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A735" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="B735" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="C735" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A736" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="B736" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="C736" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A737" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="B737" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="C737" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A738" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="B738" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="C738" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A739" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="B739" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="C739" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A740" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="B740" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="C740" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A741" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="B741" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="C741" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A742" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B742" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="C742" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A743" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B743" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="C743" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A744" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B744" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="C744" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A745" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B745" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="C745" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A746" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B746" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="C746" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A747" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B747" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="C747" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A748" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B748" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="C748" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A749" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B749" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="C749" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A750" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B750" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="C750" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A751" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B751" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="C751" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A752" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B752" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="C752" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A753" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="B753" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="C753" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A754" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="B754" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="C754" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A755" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="B755" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="C755" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A756" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="B756" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="C756" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A757" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="B757" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C757" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A758" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="B758" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C758" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A759" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="B759" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C759" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A760" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="B760" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C760" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A761" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="B761" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C761" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A762" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="B762" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C762" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A763" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="B763" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C763" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A764" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="B764" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C764" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A765" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="B765" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C765" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A766" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="B766" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="C766" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A767" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="B767" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="C767" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A768" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="B768" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="C768" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A769" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="B769" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="C769" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A770" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="B770" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="C770" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A771" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="B771" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="C771" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A772" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="B772" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="C772" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A773" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="B773" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="C773" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A774" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="B774" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="C774" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A775" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="B775" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C775" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A776" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="B776" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="C776" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A777" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="B777" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="C777" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A778" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="B778" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="C778" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A779" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="B779" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="C779" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A780" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="B780" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="C780" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A781" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="B781" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="C781" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A782" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="B782" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="C782" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A783" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="B783" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C783" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
